--- a/data/trans_orig/P14B19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AC2929-0B1E-4A76-A401-0B75D0D005EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{895A8C01-6CA9-48A0-854B-4352C3E3E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{055E27DD-BCA7-4937-A963-35E8256D6C1C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2163C81E-689D-4459-96B9-6580E78E0C58}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -100,10 +100,10 @@
     <t>29,04%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>66,97%</t>
@@ -118,10 +118,10 @@
     <t>70,96%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,19 +139,19 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -160,19 +160,19 @@
     <t>68,28%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -181,55 +181,55 @@
     <t>48,12%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>27,59%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>31,45%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>51,88%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>72,41%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -238,49 +238,49 @@
     <t>60,66%</t>
   </si>
   <si>
-    <t>19,71%</t>
+    <t>19,7%</t>
   </si>
   <si>
     <t>50,47%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>51,3%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>80,29%</t>
+    <t>80,3%</t>
   </si>
   <si>
     <t>49,53%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
   </si>
   <si>
     <t>48,7%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -289,103 +289,103 @@
     <t>62,19%</t>
   </si>
   <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>55,44%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>46,95%</t>
   </si>
   <si>
     <t>56,12%</t>
   </si>
   <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>59,08%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -406,7 +406,7 @@
     <t>18,81%</t>
   </si>
   <si>
-    <t>79,3%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -421,7 +421,7 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>20,7%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -439,496 +439,496 @@
     <t>11,65%</t>
   </si>
   <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>63,37%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>78,17%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>25,86%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>36,61%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>63,39%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>26,48%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>73,52%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E87D31F-EC24-42B5-BD31-903ACD59E221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7A0C2A-F351-4831-83A1-5E8AF8098ADB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2242,7 +2242,7 @@
         <v>86</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -2251,13 +2251,13 @@
         <v>93689</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,10 +2290,10 @@
         <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2302,10 +2302,10 @@
         <v>73245</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>97</v>
@@ -2541,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2269E07C-7F6D-43B8-A1BC-1039F7BE7D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F1810C-8B30-4F0C-B5F1-D22E02005D57}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,10 +3595,10 @@
         <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3607,13 +3607,13 @@
         <v>73908</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3628,13 @@
         <v>45875</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -3643,13 +3643,13 @@
         <v>150815</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -3658,13 +3658,13 @@
         <v>196691</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66B2C8F-D02C-4EE4-B421-948E37D1D443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6812D15D-9DBC-400D-892A-241618BEFCFA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3759,7 +3759,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,7 +3885,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>30</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3931,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>28</v>
@@ -3946,7 +3946,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>28</v>
@@ -4021,7 +4021,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4030,13 +4030,13 @@
         <v>2407</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4045,13 +4045,13 @@
         <v>2407</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -4081,13 +4081,13 @@
         <v>4274</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4096,13 +4096,13 @@
         <v>6803</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4170,13 @@
         <v>1387</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4185,13 +4185,13 @@
         <v>4559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4200,13 +4200,13 @@
         <v>5946</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4221,13 @@
         <v>10313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -4236,13 +4236,13 @@
         <v>30583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -4251,13 +4251,13 @@
         <v>40896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4325,13 @@
         <v>8867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4340,13 +4340,13 @@
         <v>23882</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -4355,13 +4355,13 @@
         <v>32749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4376,13 @@
         <v>15337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -4391,13 +4391,13 @@
         <v>67581</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -4406,13 +4406,13 @@
         <v>82918</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4480,13 @@
         <v>8914</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4495,13 +4495,13 @@
         <v>21836</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4510,13 +4510,13 @@
         <v>30750</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4531,13 @@
         <v>30964</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -4546,13 +4546,13 @@
         <v>57174</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -4561,13 +4561,13 @@
         <v>88138</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4635,13 @@
         <v>13842</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>123</v>
@@ -4650,13 +4650,13 @@
         <v>70701</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -4665,13 +4665,13 @@
         <v>84544</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4686,13 @@
         <v>35965</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>213</v>
@@ -4701,13 +4701,13 @@
         <v>110432</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -4716,13 +4716,13 @@
         <v>146396</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4790,13 @@
         <v>33010</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -4805,13 +4805,13 @@
         <v>123384</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>248</v>
@@ -4820,13 +4820,13 @@
         <v>156395</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4841,13 @@
         <v>95109</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>473</v>
@@ -4856,13 +4856,13 @@
         <v>275186</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>587</v>
@@ -4871,10 +4871,10 @@
         <v>370294</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>296</v>

--- a/data/trans_orig/P14B19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{895A8C01-6CA9-48A0-854B-4352C3E3E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F876ADAB-68FA-48E9-B5EF-B14800545574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2163C81E-689D-4459-96B9-6580E78E0C58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AAA9141-27D6-45E7-ACAB-BDAA7F425BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -94,16 +94,16 @@
     <t>27,41%</t>
   </si>
   <si>
-    <t>71,93%</t>
+    <t>70,96%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
   </si>
   <si>
     <t>66,97%</t>
@@ -112,16 +112,10 @@
     <t>72,59%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,19 +133,19 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -160,19 +154,19 @@
     <t>68,28%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -181,217 +175,217 @@
     <t>48,12%</t>
   </si>
   <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
+    <t>62,67%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>53,05%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
   <si>
     <t>43,88%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>36,2%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>47,0%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>52,49%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas varices en las piernas le limita en 2015 (Tasa respuesta: 3,61%)</t>
+    <t>Población cuyas varices en las piernas le limita en 2016 (Tasa respuesta: 3,61%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -406,7 +400,7 @@
     <t>18,81%</t>
   </si>
   <si>
-    <t>80,65%</t>
+    <t>79,14%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -421,7 +415,7 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>20,86%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -439,49 +433,49 @@
     <t>11,65%</t>
   </si>
   <si>
-    <t>36,54%</t>
+    <t>36,73%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>88,35%</t>
   </si>
   <si>
-    <t>63,46%</t>
+    <t>63,27%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -490,19 +484,19 @@
     <t>30,44%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -511,121 +505,127 @@
     <t>69,56%</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>41,54%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>58,46%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>38,45%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>61,55%</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7A0C2A-F351-4831-83A1-5E8AF8098ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D35180-CB06-4B8F-ADAC-57002667F0C7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1670,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -1682,13 +1682,13 @@
         <v>7038</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1703,13 @@
         <v>2867</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1718,13 +1718,13 @@
         <v>7052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1733,18 +1733,18 @@
         <v>9918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1759,10 +1759,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1771,13 +1771,13 @@
         <v>12682</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1786,13 +1786,13 @@
         <v>12682</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,10 +1810,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -1822,13 +1822,13 @@
         <v>27305</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -1837,13 +1837,13 @@
         <v>33221</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1858,13 @@
         <v>5916</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -1873,13 +1873,13 @@
         <v>39987</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -1888,18 +1888,18 @@
         <v>45903</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1911,13 +1911,13 @@
         <v>4247</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1926,13 +1926,13 @@
         <v>10532</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1941,13 +1941,13 @@
         <v>14779</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1962,13 @@
         <v>4579</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -1977,13 +1977,13 @@
         <v>27633</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -1992,13 +1992,13 @@
         <v>32213</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,13 +2013,13 @@
         <v>8826</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>35</v>
@@ -2028,13 +2028,13 @@
         <v>38165</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -2043,18 +2043,18 @@
         <v>46992</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2066,10 +2066,10 @@
         <v>3196</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2081,13 +2081,13 @@
         <v>29780</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2096,13 +2096,13 @@
         <v>32976</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2117,13 @@
         <v>2072</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2132,13 +2132,13 @@
         <v>29230</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -2147,13 +2147,13 @@
         <v>31302</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>5268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -2183,13 +2183,13 @@
         <v>59010</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -2198,18 +2198,18 @@
         <v>64278</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2221,13 +2221,13 @@
         <v>10508</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -2236,13 +2236,13 @@
         <v>83181</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -2251,13 +2251,13 @@
         <v>93689</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2272,13 @@
         <v>6387</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
@@ -2287,13 +2287,13 @@
         <v>66858</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2302,13 +2302,13 @@
         <v>73245</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2323,13 @@
         <v>16895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>139</v>
@@ -2338,13 +2338,13 @@
         <v>150039</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>155</v>
@@ -2353,13 +2353,13 @@
         <v>166934</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2376,13 @@
         <v>18898</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -2391,13 +2391,13 @@
         <v>138108</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2406,13 +2406,13 @@
         <v>157005</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2427,13 @@
         <v>20875</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="7">
         <v>144</v>
@@ -2442,13 +2442,13 @@
         <v>156145</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -2457,13 +2457,13 @@
         <v>177021</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2478,13 @@
         <v>39773</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="7">
         <v>273</v>
@@ -2493,13 +2493,13 @@
         <v>294253</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>308</v>
@@ -2508,18 +2508,18 @@
         <v>334026</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F1810C-8B30-4F0C-B5F1-D22E02005D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189FE60D-FA17-4E82-92A6-5C44586E4CA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2558,7 +2558,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2805,10 +2805,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2817,13 +2817,13 @@
         <v>922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2832,13 +2832,13 @@
         <v>922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,10 +2856,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2868,10 +2868,10 @@
         <v>2927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2883,10 +2883,10 @@
         <v>3982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2904,13 +2904,13 @@
         <v>1055</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2919,13 +2919,13 @@
         <v>3849</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2934,18 +2934,18 @@
         <v>4904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2960,10 +2960,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,10 +3011,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -3026,10 +3026,10 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -3041,10 +3041,10 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3059,13 @@
         <v>1528</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -3074,13 +3074,13 @@
         <v>12413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -3089,18 +3089,18 @@
         <v>13941</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3112,13 @@
         <v>2128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3127,13 +3127,13 @@
         <v>3215</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3142,13 +3142,13 @@
         <v>5343</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,10 +3163,10 @@
         <v>16127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3178,13 +3178,13 @@
         <v>33678</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -3193,13 +3193,13 @@
         <v>49805</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3214,13 @@
         <v>18255</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -3229,13 +3229,13 @@
         <v>36893</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>51</v>
@@ -3244,18 +3244,18 @@
         <v>55148</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3270,10 +3270,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3282,13 +3282,13 @@
         <v>14469</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -3297,13 +3297,13 @@
         <v>14469</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,10 +3321,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3333,13 +3333,13 @@
         <v>33070</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -3348,13 +3348,13 @@
         <v>43285</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3369,13 @@
         <v>10215</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -3384,13 +3384,13 @@
         <v>47539</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -3399,18 +3399,18 @@
         <v>57754</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3422,13 +3422,13 @@
         <v>4338</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -3437,13 +3437,13 @@
         <v>48836</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -3452,13 +3452,13 @@
         <v>53175</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3473,13 @@
         <v>16950</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -3488,13 +3488,13 @@
         <v>68728</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -3503,13 +3503,13 @@
         <v>85678</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3524,13 @@
         <v>21288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -3539,13 +3539,13 @@
         <v>117564</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -3554,13 +3554,13 @@
         <v>138853</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3577,13 @@
         <v>6466</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -3592,13 +3592,13 @@
         <v>67443</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3607,13 +3607,13 @@
         <v>73908</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3628,13 @@
         <v>45875</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -3643,13 +3643,13 @@
         <v>150815</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -3679,13 +3679,13 @@
         <v>52341</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="7">
         <v>187</v>
@@ -3694,13 +3694,13 @@
         <v>218258</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -3709,18 +3709,18 @@
         <v>270599</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6812D15D-9DBC-400D-892A-241618BEFCFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F5FB20-3427-4B9A-AA5D-04E4B1758352}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3882,7 +3882,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>197</v>
@@ -3897,7 +3897,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>197</v>
@@ -3934,7 +3934,7 @@
         <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3949,7 +3949,7 @@
         <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3977,13 @@
         <v>5141</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3992,13 +3992,13 @@
         <v>5141</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,7 +4018,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>197</v>
@@ -4072,7 +4072,7 @@
         <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4117,13 +4117,13 @@
         <v>2530</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4132,13 +4132,13 @@
         <v>6681</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -4147,18 +4147,18 @@
         <v>9210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4272,13 +4272,13 @@
         <v>11700</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -4287,13 +4287,13 @@
         <v>35142</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -4302,18 +4302,18 @@
         <v>46842</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4427,13 +4427,13 @@
         <v>24204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>140</v>
@@ -4442,13 +4442,13 @@
         <v>91463</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>164</v>
@@ -4457,18 +4457,18 @@
         <v>115667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4582,13 +4582,13 @@
         <v>39878</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>137</v>
@@ -4597,13 +4597,13 @@
         <v>79010</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>184</v>
@@ -4612,18 +4612,18 @@
         <v>118888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4737,13 +4737,13 @@
         <v>49807</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>336</v>
@@ -4752,13 +4752,13 @@
         <v>181133</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>410</v>
@@ -4767,13 +4767,13 @@
         <v>230940</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4892,13 @@
         <v>128119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="7">
         <v>677</v>
@@ -4907,13 +4907,13 @@
         <v>398570</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>835</v>
@@ -4922,18 +4922,18 @@
         <v>526689</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
